--- a/results/FrequencyTables/26581162_sg122R.xlsx
+++ b/results/FrequencyTables/26581162_sg122R.xlsx
@@ -465,73 +465,73 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.0102040816326531</v>
+        <v>0.013555787278415</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.00208550573514077</v>
       </c>
       <c r="D2">
-        <v>0.887755102040816</v>
+        <v>0.86444212721585</v>
       </c>
       <c r="E2">
-        <v>0.0102040816326531</v>
+        <v>0.00834202294056309</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0510204081632653</v>
+        <v>0.0312825860271116</v>
       </c>
       <c r="H2">
-        <v>0.959183673469388</v>
+        <v>0.899895724713243</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.00208550573514077</v>
       </c>
       <c r="J2">
-        <v>0.0510204081632653</v>
+        <v>0.0125130344108446</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.00521376433785193</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.0510204081632653</v>
+        <v>0.0114702815432742</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>0.00417101147028154</v>
       </c>
       <c r="P2">
-        <v>0.908163265306122</v>
+        <v>0.843587069864442</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>0.00104275286757039</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>0.0166840458811262</v>
       </c>
       <c r="S2">
-        <v>0.0204081632653061</v>
+        <v>0.0281543274244004</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>0.00938477580813347</v>
       </c>
       <c r="U2">
-        <v>0.0102040816326531</v>
+        <v>0.00417101147028154</v>
       </c>
       <c r="V2">
-        <v>0.0510204081632653</v>
+        <v>0.0114702815432742</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>0.0177267987486966</v>
       </c>
       <c r="X2">
-        <v>0.387755102040816</v>
+        <v>0.222106360792492</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -539,19 +539,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.969387755102041</v>
+        <v>0.962460896767466</v>
       </c>
       <c r="C3">
-        <v>0.928571428571429</v>
+        <v>0.969760166840459</v>
       </c>
       <c r="D3">
-        <v>0.0510204081632653</v>
+        <v>0.116788321167883</v>
       </c>
       <c r="E3">
-        <v>0.897959183673469</v>
+        <v>0.905109489051095</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>0.00521376433785193</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -560,52 +560,52 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.948979591836735</v>
+        <v>0.896767466110532</v>
       </c>
       <c r="J3">
-        <v>0.938775510204082</v>
+        <v>0.949947862356621</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.0114702815432742</v>
       </c>
       <c r="L3">
-        <v>0.0510204081632653</v>
+        <v>0.0104275286757039</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.0166840458811262</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.0145985401459854</v>
       </c>
       <c r="O3">
-        <v>0.0204081632653061</v>
+        <v>0.0156412930135558</v>
       </c>
       <c r="P3">
-        <v>0.0102040816326531</v>
+        <v>0.02711157455683</v>
       </c>
       <c r="Q3">
-        <v>0.0510204081632653</v>
+        <v>0.0218978102189781</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>0.00625651720542232</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>0.00208550573514077</v>
       </c>
       <c r="T3">
-        <v>0.0714285714285714</v>
+        <v>0.0250260688216893</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>0.0156412930135558</v>
       </c>
       <c r="V3">
-        <v>0.918367346938776</v>
+        <v>0.94681960375391</v>
       </c>
       <c r="W3">
-        <v>0.0510204081632653</v>
+        <v>0.0114702815432742</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>0.0239833159541189</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -613,28 +613,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.0204081632653061</v>
+        <v>0.0156412930135558</v>
       </c>
       <c r="C4">
-        <v>0.0204081632653061</v>
+        <v>0.0198123044838373</v>
       </c>
       <c r="D4">
-        <v>0.0510204081632653</v>
+        <v>0.0125130344108446</v>
       </c>
       <c r="E4">
-        <v>0.0204081632653061</v>
+        <v>0.0166840458811262</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>0.00208550573514077</v>
       </c>
       <c r="G4">
-        <v>0.948979591836735</v>
+        <v>0.965589155370177</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.0114702815432742</v>
       </c>
       <c r="I4">
-        <v>0.0306122448979592</v>
+        <v>0.0959332638164755</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -643,43 +643,43 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.0204081632653061</v>
+        <v>0.0208550573514077</v>
       </c>
       <c r="M4">
-        <v>0.0918367346938776</v>
+        <v>0.0333680917622523</v>
       </c>
       <c r="N4">
-        <v>0.948979591836735</v>
+        <v>0.97393117831074</v>
       </c>
       <c r="O4">
-        <v>0.979591836734694</v>
+        <v>0.966631908237748</v>
       </c>
       <c r="P4">
-        <v>0.0816326530612245</v>
+        <v>0.122002085505735</v>
       </c>
       <c r="Q4">
-        <v>0.0204081632653061</v>
+        <v>0.0198123044838373</v>
       </c>
       <c r="R4">
-        <v>0.948979591836735</v>
+        <v>0.968717413972888</v>
       </c>
       <c r="S4">
-        <v>0.928571428571429</v>
+        <v>0.953076120959333</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>0.0187695516162669</v>
       </c>
       <c r="U4">
-        <v>0.928571428571429</v>
+        <v>0.962460896767466</v>
       </c>
       <c r="V4">
-        <v>0.0204081632653061</v>
+        <v>0.0291970802919708</v>
       </c>
       <c r="W4">
-        <v>0.0204081632653061</v>
+        <v>0.0187695516162669</v>
       </c>
       <c r="X4">
-        <v>0.0204081632653061</v>
+        <v>0.0187695516162669</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -687,73 +687,73 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.0072992700729927</v>
       </c>
       <c r="C5">
-        <v>0.0510204081632653</v>
+        <v>0.00834202294056309</v>
       </c>
       <c r="D5">
-        <v>0.0102040816326531</v>
+        <v>0.00625651720542232</v>
       </c>
       <c r="E5">
-        <v>0.0714285714285714</v>
+        <v>0.0698644421272158</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.992700729927007</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.00312825860271116</v>
       </c>
       <c r="H5">
-        <v>0.0408163265306122</v>
+        <v>0.0886339937434828</v>
       </c>
       <c r="I5">
-        <v>0.0204081632653061</v>
+        <v>0.00521376433785193</v>
       </c>
       <c r="J5">
-        <v>0.0102040816326531</v>
+        <v>0.0375391032325339</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>0.988529718456726</v>
       </c>
       <c r="L5">
-        <v>0.928571428571429</v>
+        <v>0.963503649635037</v>
       </c>
       <c r="M5">
-        <v>0.908163265306122</v>
+        <v>0.949947862356621</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.013555787278415</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.0072992700729927</v>
       </c>
       <c r="Q5">
-        <v>0.928571428571429</v>
+        <v>0.957247132429614</v>
       </c>
       <c r="R5">
-        <v>0.0510204081632653</v>
+        <v>0.00834202294056309</v>
       </c>
       <c r="S5">
-        <v>0.0510204081632653</v>
+        <v>0.0166840458811262</v>
       </c>
       <c r="T5">
-        <v>0.928571428571429</v>
+        <v>0.94681960375391</v>
       </c>
       <c r="U5">
-        <v>0.0612244897959184</v>
+        <v>0.0177267987486966</v>
       </c>
       <c r="V5">
-        <v>0.0102040816326531</v>
+        <v>0.0125130344108446</v>
       </c>
       <c r="W5">
-        <v>0.928571428571429</v>
+        <v>0.952033368091762</v>
       </c>
       <c r="X5">
-        <v>0.591836734693878</v>
+        <v>0.735140771637122</v>
       </c>
     </row>
   </sheetData>
